--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H2">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I2">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J2">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N2">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O2">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P2">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q2">
-        <v>372.5750287545949</v>
+        <v>528.1290370538013</v>
       </c>
       <c r="R2">
-        <v>372.5750287545949</v>
+        <v>4753.161333484212</v>
       </c>
       <c r="S2">
-        <v>0.01840082271726049</v>
+        <v>0.02116004011124155</v>
       </c>
       <c r="T2">
-        <v>0.01840082271726049</v>
+        <v>0.02224954524740873</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H3">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I3">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J3">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N3">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P3">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q3">
-        <v>670.0663357275182</v>
+        <v>813.7739704998196</v>
       </c>
       <c r="R3">
-        <v>670.0663357275182</v>
+        <v>7323.965734498377</v>
       </c>
       <c r="S3">
-        <v>0.03309339301064029</v>
+        <v>0.03260470197457881</v>
       </c>
       <c r="T3">
-        <v>0.03309339301064029</v>
+        <v>0.03428347905050844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H4">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I4">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J4">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N4">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O4">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P4">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q4">
-        <v>295.2820097777867</v>
+        <v>352.9374559937424</v>
       </c>
       <c r="R4">
-        <v>295.2820097777867</v>
+        <v>3176.437103943681</v>
       </c>
       <c r="S4">
-        <v>0.01458345700644443</v>
+        <v>0.01414080688925715</v>
       </c>
       <c r="T4">
-        <v>0.01458345700644443</v>
+        <v>0.01486890010904311</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H5">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I5">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J5">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N5">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O5">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P5">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q5">
-        <v>486.1760549895797</v>
+        <v>596.5191647740008</v>
       </c>
       <c r="R5">
-        <v>486.1760549895797</v>
+        <v>5368.672482966009</v>
       </c>
       <c r="S5">
-        <v>0.02401137678803713</v>
+        <v>0.02390016183195832</v>
       </c>
       <c r="T5">
-        <v>0.02401137678803713</v>
+        <v>0.02513075255552277</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H6">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I6">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J6">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N6">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O6">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P6">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q6">
-        <v>147.3893423267367</v>
+        <v>204.758019911681</v>
       </c>
       <c r="R6">
-        <v>147.3893423267367</v>
+        <v>1228.548119470086</v>
       </c>
       <c r="S6">
-        <v>0.00727929933370354</v>
+        <v>0.008203843398953631</v>
       </c>
       <c r="T6">
-        <v>0.00727929933370354</v>
+        <v>0.00575083298355696</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H7">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I7">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J7">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N7">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O7">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P7">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q7">
-        <v>577.8209832674024</v>
+        <v>811.526102026112</v>
       </c>
       <c r="R7">
-        <v>577.8209832674024</v>
+        <v>7303.734918235008</v>
       </c>
       <c r="S7">
-        <v>0.02853755795431979</v>
+        <v>0.03251463878219349</v>
       </c>
       <c r="T7">
-        <v>0.02853755795431979</v>
+        <v>0.03418877861215536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H8">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I8">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J8">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N8">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P8">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q8">
-        <v>1039.195756781338</v>
+        <v>1250.449742157909</v>
       </c>
       <c r="R8">
-        <v>1039.195756781338</v>
+        <v>11254.04767942118</v>
       </c>
       <c r="S8">
-        <v>0.05132404324836794</v>
+        <v>0.05010057172534813</v>
       </c>
       <c r="T8">
-        <v>0.05132404324836794</v>
+        <v>0.05268019019169877</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H9">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I9">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J9">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N9">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O9">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P9">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q9">
-        <v>457.94840787185</v>
+        <v>542.3257155474986</v>
       </c>
       <c r="R9">
-        <v>457.94840787185</v>
+        <v>4880.931439927487</v>
       </c>
       <c r="S9">
-        <v>0.02261726314581325</v>
+        <v>0.02172884482618176</v>
       </c>
       <c r="T9">
-        <v>0.02261726314581325</v>
+        <v>0.02284763703624603</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H10">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I10">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J10">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N10">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O10">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P10">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q10">
-        <v>754.0030985817406</v>
+        <v>916.6147638339413</v>
       </c>
       <c r="R10">
-        <v>754.0030985817406</v>
+        <v>8249.532874505472</v>
       </c>
       <c r="S10">
-        <v>0.03723888149896999</v>
+        <v>0.0367251255062246</v>
       </c>
       <c r="T10">
-        <v>0.03723888149896999</v>
+        <v>0.03861605825753631</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H11">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I11">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J11">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N11">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O11">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P11">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q11">
-        <v>228.5839042703702</v>
+        <v>314.632345694304</v>
       </c>
       <c r="R11">
-        <v>228.5839042703702</v>
+        <v>1887.794074165824</v>
       </c>
       <c r="S11">
-        <v>0.01128935536167882</v>
+        <v>0.0126060727361735</v>
       </c>
       <c r="T11">
-        <v>0.01128935536167882</v>
+        <v>0.008836762887691299</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H12">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I12">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J12">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N12">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O12">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P12">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q12">
-        <v>1240.552422565342</v>
+        <v>1829.166531323032</v>
       </c>
       <c r="R12">
-        <v>1240.552422565342</v>
+        <v>16462.49878190729</v>
       </c>
       <c r="S12">
-        <v>0.06126869338344339</v>
+        <v>0.07328746283077966</v>
       </c>
       <c r="T12">
-        <v>0.06126869338344339</v>
+        <v>0.07706094656479094</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H13">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I13">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J13">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N13">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P13">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q13">
-        <v>2231.100723107715</v>
+        <v>2818.493221285402</v>
       </c>
       <c r="R13">
-        <v>2231.100723107715</v>
+        <v>25366.43899156862</v>
       </c>
       <c r="S13">
-        <v>0.1101901246776739</v>
+        <v>0.1129258674136979</v>
       </c>
       <c r="T13">
-        <v>0.1101901246776739</v>
+        <v>0.1187402851514032</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H14">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I14">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J14">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N14">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O14">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P14">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q14">
-        <v>983.1920668281732</v>
+        <v>1222.393272968785</v>
       </c>
       <c r="R14">
-        <v>983.1920668281732</v>
+        <v>11001.53945671907</v>
       </c>
       <c r="S14">
-        <v>0.04855811990190721</v>
+        <v>0.04897646005609862</v>
       </c>
       <c r="T14">
-        <v>0.04855811990190721</v>
+        <v>0.05149819935819276</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H15">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I15">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J15">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N15">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O15">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P15">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q15">
-        <v>1618.806512145094</v>
+        <v>2066.034652410554</v>
       </c>
       <c r="R15">
-        <v>1618.806512145094</v>
+        <v>18594.31187169499</v>
       </c>
       <c r="S15">
-        <v>0.07994999488585912</v>
+        <v>0.08277783088788727</v>
       </c>
       <c r="T15">
-        <v>0.07994999488585912</v>
+        <v>0.08703996231292266</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H16">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I16">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J16">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N16">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O16">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P16">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q16">
-        <v>490.7580797750677</v>
+        <v>709.1761496996941</v>
       </c>
       <c r="R16">
-        <v>490.7580797750677</v>
+        <v>4255.056898198164</v>
       </c>
       <c r="S16">
-        <v>0.02423767490051582</v>
+        <v>0.02841388130691375</v>
       </c>
       <c r="T16">
-        <v>0.02423767490051582</v>
+        <v>0.01991791869546335</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H17">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I17">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J17">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N17">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O17">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P17">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q17">
-        <v>1375.235244559869</v>
+        <v>1759.758613986553</v>
       </c>
       <c r="R17">
-        <v>1375.235244559869</v>
+        <v>15837.82752587897</v>
       </c>
       <c r="S17">
-        <v>0.06792044011715707</v>
+        <v>0.07050656230868241</v>
       </c>
       <c r="T17">
-        <v>0.06792044011715707</v>
+        <v>0.07413686080362671</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H18">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I18">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J18">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N18">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P18">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q18">
-        <v>2473.324216509785</v>
+        <v>2711.545198146739</v>
       </c>
       <c r="R18">
-        <v>2473.324216509785</v>
+        <v>24403.90678332065</v>
       </c>
       <c r="S18">
-        <v>0.1221531152595865</v>
+        <v>0.1086408834407346</v>
       </c>
       <c r="T18">
-        <v>0.1221531152595865</v>
+        <v>0.1142346724829178</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H19">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I19">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J19">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N19">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O19">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P19">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q19">
-        <v>1089.934095390917</v>
+        <v>1176.00943104406</v>
       </c>
       <c r="R19">
-        <v>1089.934095390917</v>
+        <v>10584.08487939654</v>
       </c>
       <c r="S19">
-        <v>0.05382992019037348</v>
+        <v>0.04711804310346155</v>
       </c>
       <c r="T19">
-        <v>0.05382992019037348</v>
+        <v>0.04954409474124154</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H20">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I20">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J20">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N20">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O20">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P20">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q20">
-        <v>1794.555174880333</v>
+        <v>1987.638749187302</v>
       </c>
       <c r="R20">
-        <v>1794.555174880333</v>
+        <v>17888.74874268572</v>
       </c>
       <c r="S20">
-        <v>0.08862991097308791</v>
+        <v>0.07963681734692561</v>
       </c>
       <c r="T20">
-        <v>0.08862991097308791</v>
+        <v>0.08373722174461805</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H21">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I21">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J21">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N21">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O21">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P21">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q21">
-        <v>544.0381201010058</v>
+        <v>682.2663857539496</v>
       </c>
       <c r="R21">
-        <v>544.0381201010058</v>
+        <v>4093.598314523698</v>
       </c>
       <c r="S21">
-        <v>0.02686908200174653</v>
+        <v>0.02733571357795779</v>
       </c>
       <c r="T21">
-        <v>0.02686908200174653</v>
+        <v>0.01916213116564806</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H22">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I22">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J22">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N22">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O22">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P22">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q22">
-        <v>260.2653993441491</v>
+        <v>352.205548992132</v>
       </c>
       <c r="R22">
-        <v>260.2653993441491</v>
+        <v>2113.233293952792</v>
       </c>
       <c r="S22">
-        <v>0.01285404845509156</v>
+        <v>0.01411148227268584</v>
       </c>
       <c r="T22">
-        <v>0.01285404845509156</v>
+        <v>0.009892043735377958</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H23">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I23">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J23">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N23">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P23">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q23">
-        <v>468.0804374843451</v>
+        <v>542.700150770536</v>
       </c>
       <c r="R23">
-        <v>468.0804374843451</v>
+        <v>3256.200904623216</v>
       </c>
       <c r="S23">
-        <v>0.02311766619560637</v>
+        <v>0.02174384696350549</v>
       </c>
       <c r="T23">
-        <v>0.02311766619560637</v>
+        <v>0.01524227441044173</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H24">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I24">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J24">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N24">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O24">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P24">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q24">
-        <v>206.2717151250057</v>
+        <v>235.3715128818019</v>
       </c>
       <c r="R24">
-        <v>206.2717151250057</v>
+        <v>1412.229077290812</v>
       </c>
       <c r="S24">
-        <v>0.01018739574224264</v>
+        <v>0.009430404890074559</v>
       </c>
       <c r="T24">
-        <v>0.01018739574224264</v>
+        <v>0.00661064343293715</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H25">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I25">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J25">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N25">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O25">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P25">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q25">
-        <v>339.6223454008535</v>
+        <v>397.814445283288</v>
       </c>
       <c r="R25">
-        <v>339.6223454008535</v>
+        <v>2386.886671699728</v>
       </c>
       <c r="S25">
-        <v>0.0167733478795692</v>
+        <v>0.01593885022112152</v>
       </c>
       <c r="T25">
-        <v>0.0167733478795692</v>
+        <v>0.01117301502650464</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H26">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I26">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J26">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N26">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O26">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P26">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q26">
-        <v>102.9600565769708</v>
+        <v>136.551686716269</v>
       </c>
       <c r="R26">
-        <v>102.9600565769708</v>
+        <v>546.2067468650761</v>
       </c>
       <c r="S26">
-        <v>0.00508501537090356</v>
+        <v>0.00547108559736243</v>
       </c>
       <c r="T26">
-        <v>0.00508501537090356</v>
+        <v>0.002556793442545748</v>
       </c>
     </row>
   </sheetData>
